--- a/Input data/Chemistry_data_zero_fossil_2050.xlsx
+++ b/Input data/Chemistry_data_zero_fossil_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\PhD\Bottom-up &amp; scenarios\Modelling\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE1F226-FE66-4E1C-866B-B65D7565700F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A710D-5F7A-483F-8D88-F71211F09236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
@@ -1286,16 +1286,16 @@
             <v>0.8</v>
           </cell>
           <cell r="D37">
-            <v>0.6</v>
+            <v>0.8</v>
           </cell>
           <cell r="E37">
-            <v>0.39999999999999997</v>
+            <v>0.8</v>
           </cell>
           <cell r="F37">
-            <v>0.19999999999999996</v>
+            <v>0.8</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.8</v>
           </cell>
         </row>
       </sheetData>
@@ -1628,16 +1628,16 @@
             <v>2.5</v>
           </cell>
           <cell r="D37">
-            <v>2.4</v>
+            <v>2.5</v>
           </cell>
           <cell r="E37">
-            <v>1.5999999999999999</v>
+            <v>2.5</v>
           </cell>
           <cell r="F37">
-            <v>0.79999999999999982</v>
+            <v>2.5</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
         </row>
       </sheetData>
@@ -1973,13 +1973,13 @@
             <v>0.1</v>
           </cell>
           <cell r="E37">
-            <v>6.666666666666668E-2</v>
+            <v>0.1</v>
           </cell>
           <cell r="F37">
-            <v>3.333333333333334E-2</v>
+            <v>0.1</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
         </row>
       </sheetData>
@@ -2315,13 +2315,13 @@
             <v>0.6</v>
           </cell>
           <cell r="E37">
-            <v>0.39999999999999997</v>
+            <v>0.6</v>
           </cell>
           <cell r="F37">
-            <v>0.19999999999999996</v>
+            <v>0.6</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.6</v>
           </cell>
         </row>
       </sheetData>
@@ -2657,13 +2657,13 @@
             <v>0.4</v>
           </cell>
           <cell r="E37">
-            <v>0.26666666666666672</v>
+            <v>0.4</v>
           </cell>
           <cell r="F37">
-            <v>0.13333333333333336</v>
+            <v>0.4</v>
           </cell>
           <cell r="G37">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
       </sheetData>
@@ -3068,7 +3068,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63D130C1-8AB1-4199-A675-E3E123196595}" name="Tableau1" displayName="Tableau1" ref="A1:F626" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F626" xr:uid="{0BE97764-31A2-4AB2-B609-6BCFE43756E3}"/>
+  <autoFilter ref="A1:F626" xr:uid="{0BE97764-31A2-4AB2-B609-6BCFE43756E3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ammonia"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1E79FC1B-4CFA-4C40-98C1-1693142045AC}" name="RESOURCES"/>
     <tableColumn id="6" xr3:uid="{9A10DF1F-8347-486C-990F-6204DF8DB735}" name="SECTOR"/>
@@ -3396,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
@@ -5855,7 +5861,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7630,8 +7636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F626"/>
   <sheetViews>
-    <sheetView topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="I588" sqref="I588"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7661,7 +7667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7673,7 +7679,7 @@
         <v>0.14360919999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7696,7 +7702,7 @@
         <v>0.66905599999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7708,7 +7714,7 @@
         <v>0.38638319999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7722,7 +7728,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7736,7 +7742,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7801,7 +7807,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7818,7 +7824,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -7835,7 +7841,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -7852,7 +7858,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +7875,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7886,7 +7892,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -7903,7 +7909,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -7920,7 +7926,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -7968,7 +7974,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -7982,7 +7988,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7996,7 +8002,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8021,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8035,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -8056,7 +8062,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -8126,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -8201,7 +8207,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -8229,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -8243,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -8264,7 +8270,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -8303,10 +8309,10 @@
       </c>
       <c r="F43" s="12">
         <f>[1]France!$D37*1000000</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -8327,7 +8333,7 @@
         <v>3813333.3333333335</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -8366,10 +8372,10 @@
       </c>
       <c r="F46" s="12">
         <f>[1]France!$E37*1000000</f>
-        <v>399999.99999999994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -8390,7 +8396,7 @@
         <v>3226666.666666667</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -8429,10 +8435,10 @@
       </c>
       <c r="F49" s="12">
         <f>[1]France!$F37*1000000</f>
-        <v>199999.99999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -8453,7 +8459,7 @@
         <v>2640000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -8492,10 +8498,10 @@
       </c>
       <c r="F52" s="12">
         <f>[1]France!$G37*1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -8558,7 +8564,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -8579,7 +8585,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -8618,10 +8624,10 @@
       </c>
       <c r="F58" s="12">
         <f>1000000*[1]Germany!$D37</f>
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -8642,7 +8648,7 @@
         <v>7973333.333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -8681,10 +8687,10 @@
       </c>
       <c r="F61" s="12">
         <f>1000000*[1]Germany!$E37</f>
-        <v>1599999.9999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -8705,7 +8711,7 @@
         <v>6746666.666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -8744,10 +8750,10 @@
       </c>
       <c r="F64" s="12">
         <f>1000000*[1]Germany!$F37</f>
-        <v>799999.99999999977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -8768,7 +8774,7 @@
         <v>5520000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -8807,10 +8813,10 @@
       </c>
       <c r="F67" s="12">
         <f>1000000*[1]Germany!$G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -8831,7 +8837,7 @@
         <v>880000.00000000012</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -8873,7 +8879,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>880000.00000000012</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -8957,7 +8963,7 @@
         <v>762666.66666666674</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -8996,10 +9002,10 @@
       </c>
       <c r="F76" s="12">
         <f>1000000*[1]Italy!$E37</f>
-        <v>66666.666666666686</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>645333.33333333337</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -9059,10 +9065,10 @@
       </c>
       <c r="F79" s="12">
         <f>1000000*[1]Italy!$F37</f>
-        <v>33333.333333333343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -9083,7 +9089,7 @@
         <v>528000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -9122,10 +9128,10 @@
       </c>
       <c r="F82" s="12">
         <f>1000000*[1]Italy!$G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -9146,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -9188,7 +9194,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -9251,7 +9257,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -9272,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -9311,10 +9317,10 @@
       </c>
       <c r="F91">
         <f>1000000*'[1]Great Britain'!$E37</f>
-        <v>399999.99999999994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -9374,10 +9380,10 @@
       </c>
       <c r="F94">
         <f>1000000*'[1]Great Britain'!$F37</f>
-        <v>199999.99999999994</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>50</v>
       </c>
@@ -9398,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -9437,10 +9443,10 @@
       </c>
       <c r="F97">
         <f>1000000*'[1]Great Britain'!$G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -9461,7 +9467,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -9503,7 +9509,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -9524,7 +9530,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -9587,7 +9593,7 @@
         <v>2340000.0000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -9626,10 +9632,10 @@
       </c>
       <c r="F106">
         <f>1000000*[1]Spain!$E37</f>
-        <v>266666.66666666674</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>50</v>
       </c>
@@ -9650,7 +9656,7 @@
         <v>1980000</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -9689,10 +9695,10 @@
       </c>
       <c r="F109">
         <f>1000000*[1]Spain!$F37</f>
-        <v>133333.33333333337</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -9713,7 +9719,7 @@
         <v>1620000</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -9752,10 +9758,10 @@
       </c>
       <c r="F112">
         <f>1000000*[1]Spain!$G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>50</v>
       </c>
@@ -9776,7 +9782,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -9818,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -9881,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -9902,7 +9908,7 @@
         <v>3206666.666666667</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -9944,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -9965,7 +9971,7 @@
         <v>2713333.3333333335</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -10007,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -10028,7 +10034,7 @@
         <v>2220000</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -10091,7 +10097,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -10112,7 +10118,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -10133,7 +10139,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -10154,7 +10160,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -10175,7 +10181,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -10196,7 +10202,7 @@
         <v>23212927.756653991</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -10217,7 +10223,7 @@
         <v>23212927.756653991</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -10238,7 +10244,7 @@
         <v>23212927.756653991</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -10259,7 +10265,7 @@
         <v>23212927.756653991</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>23212927.756653991</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -10301,7 +10307,7 @@
         <v>9394169.8352344725</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -10322,7 +10328,7 @@
         <v>9394169.8352344725</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -10343,7 +10349,7 @@
         <v>9394169.8352344725</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -10364,7 +10370,7 @@
         <v>9394169.8352344725</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>9394169.8352344725</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -10406,7 +10412,7 @@
         <v>8390367.5538656525</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -10427,7 +10433,7 @@
         <v>8390367.5538656525</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>8390367.5538656525</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -10469,7 +10475,7 @@
         <v>8390367.5538656525</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -10490,7 +10496,7 @@
         <v>8390367.5538656525</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -10511,7 +10517,7 @@
         <v>14102661.596958175</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -10532,7 +10538,7 @@
         <v>14102661.596958175</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -10553,7 +10559,7 @@
         <v>14102661.596958175</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10574,7 +10580,7 @@
         <v>14102661.596958175</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>14102661.596958175</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -10616,7 +10622,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -10637,7 +10643,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -10658,7 +10664,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -10700,7 +10706,7 @@
         <v>1381495.5640050694</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -10718,7 +10724,7 @@
         <v>187.57874734722378</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -10736,7 +10742,7 @@
         <v>182.76101931043857</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -10754,7 +10760,7 @@
         <v>171.52868987772487</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -10772,7 +10778,7 @@
         <v>162.21853139056535</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -10790,7 +10796,7 @@
         <v>153.85465108972713</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -10808,7 +10814,7 @@
         <v>232.76620377870407</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -10826,7 +10832,7 @@
         <v>225.69282462830225</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -10844,7 +10850,7 @@
         <v>208.37939858350717</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>194.77036417621207</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -10880,7 +10886,7 @@
         <v>183.25254972589138</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -10898,7 +10904,7 @@
         <v>200.04802385568578</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>196.32283638261339</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>189.14130390953821</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>180.90339908695114</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -10970,7 +10976,7 @@
         <v>173.97171154417904</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -10988,7 +10994,7 @@
         <v>199.33800178205163</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -11006,7 +11012,7 @@
         <v>198.87243850212354</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -11024,7 +11030,7 @@
         <v>200.28628960691981</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -11042,7 +11048,7 @@
         <v>199.06271861918282</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -11060,7 +11066,7 @@
         <v>196.07905882255494</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -11078,7 +11084,7 @@
         <v>191.88651995265312</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -11096,7 +11102,7 @@
         <v>188.40553699516809</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -11114,7 +11120,7 @@
         <v>180.4358266578086</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -11132,7 +11138,7 @@
         <v>173.20488038525997</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -11150,7 +11156,7 @@
         <v>167.51963925025794</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -11168,7 +11174,7 @@
         <v>181.58565830834576</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -11186,7 +11192,7 @@
         <v>180.99486287670945</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -11204,7 +11210,7 @@
         <v>180.15091615533174</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -11222,7 +11228,7 @@
         <v>178.57748370265099</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -11240,7 +11246,7 @@
         <v>177.45009028689171</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -11258,7 +11264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -11276,7 +11282,7 @@
         <v>74.285714285714292</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -11294,7 +11300,7 @@
         <v>72.857142857142861</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -11312,7 +11318,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -11330,7 +11336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -11348,7 +11354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -11366,7 +11372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -11384,7 +11390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -11402,7 +11408,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -11420,7 +11426,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -11438,7 +11444,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -11456,7 +11462,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -11474,7 +11480,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -11492,7 +11498,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -11510,7 +11516,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -11528,7 +11534,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -11564,7 +11570,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -11600,7 +11606,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>93</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>11.468528870908424</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>93</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>11.468528870908424</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>93</v>
       </c>
@@ -11654,7 +11660,7 @@
         <v>11.468528870908424</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>93</v>
       </c>
@@ -11672,7 +11678,7 @@
         <v>11.468528870908424</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>93</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>11.468528870908424</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -11708,7 +11714,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -11726,7 +11732,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -11744,7 +11750,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -11762,7 +11768,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>94</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>94</v>
       </c>
@@ -11816,7 +11822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -11834,7 +11840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>94</v>
       </c>
@@ -11852,7 +11858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>94</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>34</v>
       </c>
@@ -11888,7 +11894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -11906,7 +11912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -11924,7 +11930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -11942,7 +11948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>34</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -11978,7 +11984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -11996,7 +12002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>16</v>
       </c>
@@ -12014,7 +12020,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>16</v>
       </c>
@@ -12032,7 +12038,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>16</v>
       </c>
@@ -12050,7 +12056,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -12068,7 +12074,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -12086,7 +12092,7 @@
         <v>117.14285714285714</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>101.42857142857143</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -12122,7 +12128,7 @@
         <v>85.714285714285722</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -12140,7 +12146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -12158,7 +12164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -12176,7 +12182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -12194,7 +12200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -12212,7 +12218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -12230,7 +12236,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -12266,7 +12272,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -12284,7 +12290,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -12302,7 +12308,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -12320,7 +12326,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -12338,7 +12344,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -12356,7 +12362,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -12374,7 +12380,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -12392,7 +12398,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -12410,7 +12416,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>93</v>
       </c>
@@ -12428,7 +12434,7 @@
         <v>13.212048846675714</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>93</v>
       </c>
@@ -12446,7 +12452,7 @@
         <v>13.212048846675714</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>93</v>
       </c>
@@ -12464,7 +12470,7 @@
         <v>13.212048846675714</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>93</v>
       </c>
@@ -12482,7 +12488,7 @@
         <v>13.212048846675714</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>93</v>
       </c>
@@ -12500,7 +12506,7 @@
         <v>13.212048846675714</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>26</v>
       </c>
@@ -12536,7 +12542,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -12554,7 +12560,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -12572,7 +12578,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>26</v>
       </c>
@@ -12590,7 +12596,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>94</v>
       </c>
@@ -12608,7 +12614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>94</v>
       </c>
@@ -12626,7 +12632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>94</v>
       </c>
@@ -12644,7 +12650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>94</v>
       </c>
@@ -12662,7 +12668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>94</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -12698,7 +12704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>34</v>
       </c>
@@ -12716,7 +12722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>34</v>
       </c>
@@ -12734,7 +12740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>34</v>
       </c>
@@ -12752,7 +12758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>34</v>
       </c>
@@ -12770,7 +12776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -12788,7 +12794,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -12806,7 +12812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>16</v>
       </c>
@@ -12824,7 +12830,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -12842,7 +12848,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -12860,7 +12866,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -12878,7 +12884,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -12896,7 +12902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -12914,7 +12920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -12950,7 +12956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -12968,7 +12974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -12986,7 +12992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -13004,7 +13010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -13040,7 +13046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -13058,7 +13064,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -13076,7 +13082,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -13112,7 +13118,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -13130,7 +13136,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -13148,7 +13154,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -13166,7 +13172,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -13184,7 +13190,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -13202,7 +13208,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -13220,7 +13226,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>93</v>
       </c>
@@ -13238,7 +13244,7 @@
         <v>11.818498331479422</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>93</v>
       </c>
@@ -13256,7 +13262,7 @@
         <v>11.818498331479422</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>93</v>
       </c>
@@ -13274,7 +13280,7 @@
         <v>11.818498331479422</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>93</v>
       </c>
@@ -13292,7 +13298,7 @@
         <v>11.818498331479422</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>93</v>
       </c>
@@ -13310,7 +13316,7 @@
         <v>11.818498331479422</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>26</v>
       </c>
@@ -13328,7 +13334,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>26</v>
       </c>
@@ -13346,7 +13352,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>26</v>
       </c>
@@ -13364,7 +13370,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -13382,7 +13388,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>26</v>
       </c>
@@ -13400,7 +13406,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>94</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>94</v>
       </c>
@@ -13436,7 +13442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>94</v>
       </c>
@@ -13454,7 +13460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>94</v>
       </c>
@@ -13472,7 +13478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>94</v>
       </c>
@@ -13490,7 +13496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>34</v>
       </c>
@@ -13508,7 +13514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>34</v>
       </c>
@@ -13526,7 +13532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>34</v>
       </c>
@@ -13544,7 +13550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>34</v>
       </c>
@@ -13562,7 +13568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>34</v>
       </c>
@@ -13580,7 +13586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>16</v>
       </c>
@@ -13598,7 +13604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>16</v>
       </c>
@@ -13616,7 +13622,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -13634,7 +13640,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>16</v>
       </c>
@@ -13652,7 +13658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>16</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -13688,7 +13694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -13706,7 +13712,7 @@
         <v>95.714285714285708</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -13724,7 +13730,7 @@
         <v>87.142857142857139</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -13742,7 +13748,7 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -13760,7 +13766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -13778,7 +13784,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -13796,7 +13802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -13814,7 +13820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -13832,7 +13838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -13868,7 +13874,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -13886,7 +13892,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -13904,7 +13910,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -13922,7 +13928,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -13940,7 +13946,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -13958,7 +13964,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -13976,7 +13982,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -13994,7 +14000,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -14012,7 +14018,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -14030,7 +14036,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>93</v>
       </c>
@@ -14048,7 +14054,7 @@
         <v>14.203522585992538</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>93</v>
       </c>
@@ -14066,7 +14072,7 @@
         <v>14.203522585992538</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>93</v>
       </c>
@@ -14084,7 +14090,7 @@
         <v>14.203522585992538</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>93</v>
       </c>
@@ -14102,7 +14108,7 @@
         <v>14.203522585992538</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>93</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>14.203522585992538</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -14138,7 +14144,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -14156,7 +14162,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>26</v>
       </c>
@@ -14174,7 +14180,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>26</v>
       </c>
@@ -14192,7 +14198,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>26</v>
       </c>
@@ -14210,7 +14216,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>94</v>
       </c>
@@ -14228,7 +14234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>94</v>
       </c>
@@ -14246,7 +14252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>94</v>
       </c>
@@ -14264,7 +14270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>94</v>
       </c>
@@ -14282,7 +14288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>94</v>
       </c>
@@ -14300,7 +14306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>34</v>
       </c>
@@ -14318,7 +14324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>34</v>
       </c>
@@ -14336,7 +14342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>34</v>
       </c>
@@ -14354,7 +14360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>34</v>
       </c>
@@ -14372,7 +14378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>34</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -14408,7 +14414,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>16</v>
       </c>
@@ -14426,7 +14432,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>16</v>
       </c>
@@ -14444,7 +14450,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -14462,7 +14468,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>16</v>
       </c>
@@ -14480,7 +14486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -14498,7 +14504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -14516,7 +14522,7 @@
         <v>78.571428571428569</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -14534,7 +14540,7 @@
         <v>75.714285714285708</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -14552,7 +14558,7 @@
         <v>72.857142857142861</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>8</v>
       </c>
@@ -14570,7 +14576,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -14588,7 +14594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -14606,7 +14612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -14624,7 +14630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -14642,7 +14648,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -14660,7 +14666,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -14678,7 +14684,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -14696,7 +14702,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -14714,7 +14720,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>9</v>
       </c>
@@ -14750,7 +14756,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -14768,7 +14774,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -14786,7 +14792,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -14804,7 +14810,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7</v>
       </c>
@@ -14822,7 +14828,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -14840,7 +14846,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>93</v>
       </c>
@@ -14858,7 +14864,7 @@
         <v>13.042691415313225</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>93</v>
       </c>
@@ -14876,7 +14882,7 @@
         <v>13.042691415313225</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>93</v>
       </c>
@@ -14894,7 +14900,7 @@
         <v>13.042691415313225</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>93</v>
       </c>
@@ -14912,7 +14918,7 @@
         <v>13.042691415313225</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>93</v>
       </c>
@@ -14930,7 +14936,7 @@
         <v>13.042691415313225</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>26</v>
       </c>
@@ -14948,7 +14954,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>26</v>
       </c>
@@ -14966,7 +14972,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>26</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>26</v>
       </c>
@@ -15002,7 +15008,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>26</v>
       </c>
@@ -15020,7 +15026,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>94</v>
       </c>
@@ -15038,7 +15044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>94</v>
       </c>
@@ -15056,7 +15062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>94</v>
       </c>
@@ -15074,7 +15080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>94</v>
       </c>
@@ -15092,7 +15098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>94</v>
       </c>
@@ -15110,7 +15116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>34</v>
       </c>
@@ -15128,7 +15134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>34</v>
       </c>
@@ -15146,7 +15152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>34</v>
       </c>
@@ -15164,7 +15170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>34</v>
       </c>
@@ -15182,7 +15188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>34</v>
       </c>
@@ -15200,7 +15206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>16</v>
       </c>
@@ -15218,7 +15224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>16</v>
       </c>
@@ -15236,7 +15242,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>16</v>
       </c>
@@ -15254,7 +15260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>16</v>
       </c>
@@ -15272,7 +15278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>16</v>
       </c>
@@ -15290,7 +15296,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -15308,7 +15314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -15326,7 +15332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -15344,7 +15350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -15380,7 +15386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -15398,7 +15404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -15416,7 +15422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -15434,7 +15440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -15452,7 +15458,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -15470,7 +15476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -15488,7 +15494,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -15506,7 +15512,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -15524,7 +15530,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -15542,7 +15548,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -15560,7 +15566,7 @@
         <v>742.5</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -15596,7 +15602,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -15614,7 +15620,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -15632,7 +15638,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -15650,7 +15656,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>93</v>
       </c>
@@ -15668,7 +15674,7 @@
         <v>14.102541567695964</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>93</v>
       </c>
@@ -15686,7 +15692,7 @@
         <v>14.102541567695964</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>93</v>
       </c>
@@ -15704,7 +15710,7 @@
         <v>14.102541567695964</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>93</v>
       </c>
@@ -15722,7 +15728,7 @@
         <v>14.102541567695964</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>93</v>
       </c>
@@ -15740,7 +15746,7 @@
         <v>14.102541567695964</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>26</v>
       </c>
@@ -15758,7 +15764,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>26</v>
       </c>
@@ -15776,7 +15782,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -15794,7 +15800,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>26</v>
       </c>
@@ -15812,7 +15818,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>26</v>
       </c>
@@ -15830,7 +15836,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>94</v>
       </c>
@@ -15848,7 +15854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>94</v>
       </c>
@@ -15866,7 +15872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>94</v>
       </c>
@@ -15884,7 +15890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>94</v>
       </c>
@@ -15902,7 +15908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>94</v>
       </c>
@@ -15920,7 +15926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>34</v>
       </c>
@@ -15938,7 +15944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>34</v>
       </c>
@@ -15956,7 +15962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>34</v>
       </c>
@@ -15974,7 +15980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>34</v>
       </c>
@@ -15992,7 +15998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>34</v>
       </c>
@@ -16010,7 +16016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>16</v>
       </c>
@@ -16028,7 +16034,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>16</v>
       </c>
@@ -16046,7 +16052,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>16</v>
       </c>
@@ -16064,7 +16070,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>16</v>
       </c>
@@ -16082,7 +16088,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>16</v>
       </c>
@@ -16100,7 +16106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>93</v>
       </c>
@@ -16121,7 +16127,7 @@
         <v>5760593.2203389825</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>93</v>
       </c>
@@ -16142,7 +16148,7 @@
         <v>5760593.2203389825</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>93</v>
       </c>
@@ -16163,7 +16169,7 @@
         <v>5760593.2203389825</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>93</v>
       </c>
@@ -16184,7 +16190,7 @@
         <v>5760593.2203389825</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>93</v>
       </c>
@@ -16205,7 +16211,7 @@
         <v>5760593.2203389825</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>93</v>
       </c>
@@ -16226,7 +16232,7 @@
         <v>4684322.0338983051</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>93</v>
       </c>
@@ -16247,7 +16253,7 @@
         <v>4684322.0338983051</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>93</v>
       </c>
@@ -16268,7 +16274,7 @@
         <v>4684322.0338983051</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>93</v>
       </c>
@@ -16289,7 +16295,7 @@
         <v>4684322.0338983051</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>93</v>
       </c>
@@ -16310,7 +16316,7 @@
         <v>4684322.0338983051</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>93</v>
       </c>
@@ -16331,7 +16337,7 @@
         <v>3809322.0338983051</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>93</v>
       </c>
@@ -16352,7 +16358,7 @@
         <v>3809322.0338983051</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>93</v>
       </c>
@@ -16373,7 +16379,7 @@
         <v>3809322.0338983051</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>93</v>
       </c>
@@ -16394,7 +16400,7 @@
         <v>3809322.0338983051</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>93</v>
       </c>
@@ -16415,7 +16421,7 @@
         <v>3809322.0338983051</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>93</v>
       </c>
@@ -16436,7 +16442,7 @@
         <v>5112288.1355932206</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>93</v>
       </c>
@@ -16457,7 +16463,7 @@
         <v>5112288.1355932206</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>93</v>
       </c>
@@ -16478,7 +16484,7 @@
         <v>5112288.1355932206</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>93</v>
       </c>
@@ -16499,7 +16505,7 @@
         <v>5112288.1355932206</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>93</v>
       </c>
@@ -16520,7 +16526,7 @@
         <v>5112288.1355932206</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>93</v>
       </c>
@@ -16541,7 +16547,7 @@
         <v>4565677.9661016949</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>93</v>
       </c>
@@ -16562,7 +16568,7 @@
         <v>4565677.9661016949</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>93</v>
       </c>
@@ -16583,7 +16589,7 @@
         <v>4565677.9661016949</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>93</v>
       </c>
@@ -16604,7 +16610,7 @@
         <v>4565677.9661016949</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>93</v>
       </c>
@@ -16625,7 +16631,7 @@
         <v>4565677.9661016949</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>93</v>
       </c>
@@ -16646,7 +16652,7 @@
         <v>891949.15254237293</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>93</v>
       </c>
@@ -16667,7 +16673,7 @@
         <v>891949.15254237293</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>93</v>
       </c>
@@ -16688,7 +16694,7 @@
         <v>891949.15254237293</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>93</v>
       </c>
@@ -16709,7 +16715,7 @@
         <v>891949.15254237293</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>93</v>
       </c>
@@ -16730,7 +16736,7 @@
         <v>891949.15254237293</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9</v>
       </c>
@@ -16744,7 +16750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>11</v>
       </c>
@@ -16762,7 +16768,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>11</v>
       </c>
@@ -16780,7 +16786,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>11</v>
       </c>
@@ -16798,7 +16804,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -16816,7 +16822,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>11</v>
       </c>
@@ -16834,7 +16840,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>11</v>
       </c>
@@ -16852,7 +16858,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>11</v>
       </c>
@@ -16870,7 +16876,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>11</v>
       </c>
@@ -16888,7 +16894,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>11</v>
       </c>
@@ -16906,7 +16912,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -16924,7 +16930,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -16942,7 +16948,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -16960,7 +16966,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>11</v>
       </c>
@@ -16978,7 +16984,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>11</v>
       </c>
@@ -16996,7 +17002,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>11</v>
       </c>
@@ -17014,7 +17020,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>11</v>
       </c>
@@ -17032,7 +17038,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>11</v>
       </c>
@@ -17050,7 +17056,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>11</v>
       </c>
@@ -17068,7 +17074,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>11</v>
       </c>
@@ -17086,7 +17092,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>11</v>
       </c>
@@ -17104,7 +17110,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>11</v>
       </c>
@@ -17122,7 +17128,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -17140,7 +17146,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>11</v>
       </c>
@@ -17158,7 +17164,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>11</v>
       </c>
@@ -17176,7 +17182,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -17194,7 +17200,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>11</v>
       </c>
@@ -17212,7 +17218,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>11</v>
       </c>
@@ -17230,7 +17236,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>11</v>
       </c>
@@ -17248,7 +17254,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>11</v>
       </c>
@@ -17266,7 +17272,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>11</v>
       </c>
@@ -17284,7 +17290,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>105</v>
       </c>
@@ -17302,7 +17308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>105</v>
       </c>
@@ -17320,7 +17326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>105</v>
       </c>
@@ -17338,7 +17344,7 @@
         <v>44.666666666666664</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>105</v>
       </c>
@@ -17356,7 +17362,7 @@
         <v>37.333333333333336</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>105</v>
       </c>
@@ -17374,7 +17380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>106</v>
       </c>
@@ -17392,7 +17398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>106</v>
       </c>
@@ -17410,7 +17416,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>106</v>
       </c>
@@ -17428,7 +17434,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>106</v>
       </c>
@@ -17446,7 +17452,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>106</v>
       </c>
@@ -17464,7 +17470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>105</v>
       </c>
@@ -17482,7 +17488,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>105</v>
       </c>
@@ -17500,7 +17506,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>105</v>
       </c>
@@ -17518,7 +17524,7 @@
         <v>56.666666666666671</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>105</v>
       </c>
@@ -17536,7 +17542,7 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>105</v>
       </c>
@@ -17554,7 +17560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>106</v>
       </c>
@@ -17572,7 +17578,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>106</v>
       </c>
@@ -17590,7 +17596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>106</v>
       </c>
@@ -17608,7 +17614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>106</v>
       </c>
@@ -17626,7 +17632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>106</v>
       </c>
@@ -17644,7 +17650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>105</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>105</v>
       </c>
@@ -17680,7 +17686,7 @@
         <v>81.999999999999986</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>105</v>
       </c>
@@ -17698,7 +17704,7 @@
         <v>64.666666666666657</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>105</v>
       </c>
@@ -17716,7 +17722,7 @@
         <v>47.333333333333329</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>105</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>106</v>
       </c>
@@ -17752,7 +17758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>106</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>106</v>
       </c>
@@ -17788,7 +17794,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>106</v>
       </c>
@@ -17806,7 +17812,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>106</v>
       </c>
@@ -17824,7 +17830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>105</v>
       </c>
@@ -17842,7 +17848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>105</v>
       </c>
@@ -17860,7 +17866,7 @@
         <v>66.999999999999986</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>105</v>
       </c>
@@ -17878,7 +17884,7 @@
         <v>54.666666666666657</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>105</v>
       </c>
@@ -17896,7 +17902,7 @@
         <v>42.333333333333329</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>105</v>
       </c>
@@ -17914,7 +17920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>106</v>
       </c>
@@ -17932,7 +17938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>106</v>
       </c>
@@ -17950,7 +17956,7 @@
         <v>53.599999999999994</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>106</v>
       </c>
@@ -17968,7 +17974,7 @@
         <v>42.399999999999991</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>106</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>31.199999999999996</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>106</v>
       </c>
@@ -18004,7 +18010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>105</v>
       </c>
@@ -18022,7 +18028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>105</v>
       </c>
@@ -18040,7 +18046,7 @@
         <v>54.999999999999993</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>105</v>
       </c>
@@ -18058,7 +18064,7 @@
         <v>46.666666666666657</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>105</v>
       </c>
@@ -18076,7 +18082,7 @@
         <v>38.333333333333329</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>105</v>
       </c>
@@ -18094,7 +18100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>106</v>
       </c>
@@ -18112,7 +18118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>106</v>
       </c>
@@ -18130,7 +18136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>106</v>
       </c>
@@ -18148,7 +18154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>106</v>
       </c>
@@ -18166,7 +18172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>106</v>
       </c>
@@ -18184,7 +18190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>105</v>
       </c>
@@ -18202,7 +18208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>105</v>
       </c>
@@ -18220,7 +18226,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>105</v>
       </c>
@@ -18238,7 +18244,7 @@
         <v>48.266666666666666</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>105</v>
       </c>
@@ -18256,7 +18262,7 @@
         <v>39.133333333333333</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>105</v>
       </c>
@@ -18274,7 +18280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>106</v>
       </c>
@@ -18292,7 +18298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>106</v>
       </c>
@@ -18310,7 +18316,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>106</v>
       </c>
@@ -18328,7 +18334,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>106</v>
       </c>
@@ -18346,7 +18352,7 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>106</v>
       </c>
@@ -18364,7 +18370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>5</v>
       </c>
@@ -18381,7 +18387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -18398,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>9</v>
       </c>
@@ -18415,7 +18421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>5</v>
       </c>
@@ -18432,7 +18438,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>5</v>
       </c>
@@ -18450,7 +18456,7 @@
         <v>0.7466666666666667</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>5</v>
       </c>
@@ -18468,7 +18474,7 @@
         <v>0.69333333333333336</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>5</v>
       </c>
@@ -18486,7 +18492,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>5</v>
       </c>
@@ -18504,7 +18510,7 @@
         <v>0.58666666666666667</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>5</v>
       </c>
@@ -18522,7 +18528,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>5</v>
       </c>
@@ -18540,7 +18546,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>5</v>
       </c>
@@ -18558,7 +18564,7 @@
         <v>0.42666666666666664</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>5</v>
       </c>
@@ -18576,7 +18582,7 @@
         <v>0.37333333333333329</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>5</v>
       </c>
@@ -18594,7 +18600,7 @@
         <v>0.31999999999999995</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>5</v>
       </c>
@@ -18612,7 +18618,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>0.21333333333333326</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>5</v>
       </c>
@@ -18648,7 +18654,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>5</v>
       </c>
@@ -18666,7 +18672,7 @@
         <v>0.10666666666666658</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>5</v>
       </c>
@@ -18684,7 +18690,7 @@
         <v>5.333333333333324E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -18701,7 +18707,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18719,7 +18725,7 @@
         <v>0.7466666666666667</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18737,7 +18743,7 @@
         <v>0.69333333333333336</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18755,7 +18761,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18773,7 +18779,7 @@
         <v>0.58666666666666667</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18791,7 +18797,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18809,7 +18815,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -18827,7 +18833,7 @@
         <v>0.42666666666666664</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18845,7 +18851,7 @@
         <v>0.37333333333333329</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>7</v>
       </c>
@@ -18863,7 +18869,7 @@
         <v>0.31999999999999995</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18881,7 +18887,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18899,7 +18905,7 @@
         <v>0.21333333333333326</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18917,7 +18923,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18935,7 +18941,7 @@
         <v>0.10666666666666658</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18953,7 +18959,7 @@
         <v>5.333333333333324E-2</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>9</v>
       </c>
@@ -18970,7 +18976,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>9</v>
       </c>
@@ -18988,7 +18994,7 @@
         <v>0.7466666666666667</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>9</v>
       </c>
@@ -19006,7 +19012,7 @@
         <v>0.69333333333333336</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -19024,7 +19030,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>9</v>
       </c>
@@ -19042,7 +19048,7 @@
         <v>0.58666666666666667</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>9</v>
       </c>
@@ -19060,7 +19066,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>9</v>
       </c>
@@ -19078,7 +19084,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -19096,7 +19102,7 @@
         <v>0.42666666666666664</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>9</v>
       </c>
@@ -19114,7 +19120,7 @@
         <v>0.37333333333333329</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>9</v>
       </c>
@@ -19132,7 +19138,7 @@
         <v>0.31999999999999995</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>9</v>
       </c>
@@ -19150,7 +19156,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -19168,7 +19174,7 @@
         <v>0.21333333333333326</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>9</v>
       </c>
@@ -19186,7 +19192,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -19204,7 +19210,7 @@
         <v>0.10666666666666658</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>9</v>
       </c>

--- a/Input data/Chemistry_data_zero_fossil_2050.xlsx
+++ b/Input data/Chemistry_data_zero_fossil_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\PhD\Bottom-up &amp; scenarios\Modelling\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A710D-5F7A-483F-8D88-F71211F09236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3DEEC8-790C-482B-8CCF-D84788BA0E57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="110">
   <si>
     <t>RESOURCES</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>max_import_ratio_from_start</t>
+  </si>
+  <si>
+    <t>output</t>
   </si>
 </sst>
 </file>
@@ -3016,14 +3019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E816912D-0BDF-41DD-ABBC-F7764F32EC0A}" name="Tableau4" displayName="Tableau4" ref="A1:F180" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:F180" xr:uid="{0228EFE9-A26D-47DE-80C5-467BC8C55473}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="flow_cost_t"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E816912D-0BDF-41DD-ABBC-F7764F32EC0A}" name="Tableau4" displayName="Tableau4" ref="A1:F179" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:F179" xr:uid="{0228EFE9-A26D-47DE-80C5-467BC8C55473}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{359CEEB4-58D1-45CF-B490-66C8D0C67A2B}" name="TECHNOLOGIES"/>
     <tableColumn id="6" xr3:uid="{2E50909C-A021-4964-9998-6A9E5B56458C}" name="SECTOR"/>
@@ -3072,6 +3069,12 @@
     <filterColumn colId="0">
       <filters>
         <filter val="Ammonia"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="is_product"/>
+        <filter val="min_output"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3400,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,7 +3437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>31</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>35</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3461,28 +3464,28 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -3491,48 +3494,49 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>71</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>2015</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2050</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>2050</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <f>3450*0.94</f>
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -3542,33 +3546,33 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12">
-        <f>3450*0.94</f>
+        <f t="shared" ref="F12:F14" si="0">3450*0.94</f>
         <v>3243</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F15" si="0">3450*0.94</f>
+        <f t="shared" si="0"/>
         <v>3243</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -3578,33 +3582,32 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16">
         <f>3450*0.94</f>
         <v>3243</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -3613,9 +3616,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -3624,9 +3627,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -3635,9 +3638,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -3646,9 +3649,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -3657,37 +3660,44 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
       </c>
       <c r="F22">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>5443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>2015</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>3469</v>
+        <f>[1]France!$C$17</f>
+        <v>1598.2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3698,13 +3708,13 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
       <c r="F25">
-        <f>[1]France!$C$17</f>
+        <f>[1]France!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
@@ -3716,37 +3726,30 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
       <c r="F26">
-        <f>[1]France!$D$17</f>
-        <v>1598.2</v>
+        <f>[1]France!$E$17</f>
+        <v>1074.2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>2030</v>
-      </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <f>[1]France!$E$17</f>
-        <v>1074.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -3755,50 +3758,50 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>2015</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="8">
+        <f>60000/8760</f>
+        <v>6.8493150684931505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="D30">
-        <v>2015</v>
+        <v>2050</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="8">
-        <f>60000/8760</f>
-        <v>6.8493150684931505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>2050</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="8">
         <f>100000/8760</f>
         <v>11.415525114155251</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -3806,8 +3809,11 @@
       <c r="E32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3815,27 +3821,27 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F34">
-        <v>76.42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -3843,29 +3849,29 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F35">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F36">
-        <v>76.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -3874,12 +3880,12 @@
         <v>29</v>
       </c>
       <c r="F37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
@@ -3887,13 +3893,13 @@
       <c r="E38" t="s">
         <v>29</v>
       </c>
-      <c r="F38">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
@@ -3901,13 +3907,13 @@
       <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
@@ -3916,12 +3922,12 @@
         <v>29</v>
       </c>
       <c r="F40">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -3930,12 +3936,12 @@
         <v>29</v>
       </c>
       <c r="F41">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
@@ -3944,12 +3950,12 @@
         <v>29</v>
       </c>
       <c r="F42">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -3961,9 +3967,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -3972,12 +3978,12 @@
         <v>29</v>
       </c>
       <c r="F44">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -3989,9 +3995,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -4003,9 +4009,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -4017,9 +4023,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -4028,59 +4034,59 @@
         <v>29</v>
       </c>
       <c r="F48">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
         <v>29</v>
       </c>
       <c r="F49">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51">
-        <v>5443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>2015</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D53">
         <v>2015</v>
@@ -4092,9 +4098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D54">
         <v>2015</v>
@@ -4106,9 +4112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>2015</v>
@@ -4120,9 +4126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D56">
         <v>2015</v>
@@ -4134,9 +4140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>2015</v>
@@ -4148,9 +4154,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>2015</v>
@@ -4162,9 +4168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>2015</v>
@@ -4176,9 +4182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>2015</v>
@@ -4190,9 +4196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>2015</v>
@@ -4204,9 +4210,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>2015</v>
@@ -4218,9 +4224,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <v>2015</v>
@@ -4232,9 +4238,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D64">
         <v>2015</v>
@@ -4246,9 +4252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>2015</v>
@@ -4260,9 +4266,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <v>2015</v>
@@ -4274,9 +4280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67">
         <v>2015</v>
@@ -4288,9 +4294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D68">
         <v>2015</v>
@@ -4302,9 +4308,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69">
         <v>2015</v>
@@ -4316,9 +4322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>2015</v>
@@ -4330,34 +4336,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71">
-        <v>2015</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
         <v>84</v>
       </c>
       <c r="F71" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
         <v>84</v>
       </c>
       <c r="F72" s="12">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
         <v>84</v>
@@ -4366,31 +4369,31 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
         <v>84</v>
       </c>
       <c r="F74" s="12">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E75" t="s">
         <v>84</v>
       </c>
       <c r="F75" s="12">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
         <v>84</v>
@@ -4399,20 +4402,21 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E77" t="s">
         <v>84</v>
       </c>
       <c r="F77" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <f>1000000/2</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E78" t="s">
         <v>84</v>
@@ -4422,21 +4426,20 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
         <v>84</v>
       </c>
       <c r="F79" s="12">
-        <f>1000000/2</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E80" t="s">
         <v>84</v>
@@ -4445,9 +4448,9 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
         <v>84</v>
@@ -4456,9 +4459,9 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E82" t="s">
         <v>84</v>
@@ -4467,20 +4470,20 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E83" t="s">
         <v>84</v>
       </c>
       <c r="F83" s="12">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
         <v>84</v>
@@ -4489,9 +4492,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
         <v>84</v>
@@ -4500,9 +4503,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
@@ -4511,9 +4514,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E87" t="s">
         <v>84</v>
@@ -4522,9 +4525,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
         <v>84</v>
@@ -4533,9 +4536,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
         <v>84</v>
@@ -4544,31 +4547,31 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
-      </c>
-      <c r="F90" s="12">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E91" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
         <v>80</v>
@@ -4577,9 +4580,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E93" t="s">
         <v>80</v>
@@ -4588,9 +4591,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E94" t="s">
         <v>80</v>
@@ -4599,20 +4602,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
         <v>80</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
         <v>80</v>
@@ -4621,9 +4624,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E97" t="s">
         <v>80</v>
@@ -4632,9 +4635,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
         <v>80</v>
@@ -4643,20 +4646,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
         <v>80</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E100" t="s">
         <v>80</v>
@@ -4665,9 +4668,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E101" t="s">
         <v>80</v>
@@ -4676,9 +4679,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s">
         <v>80</v>
@@ -4687,9 +4690,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
         <v>80</v>
@@ -4698,9 +4701,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E104" t="s">
         <v>80</v>
@@ -4709,9 +4712,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E105" t="s">
         <v>80</v>
@@ -4720,15 +4723,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>2040</v>
       </c>
       <c r="E106" t="s">
-        <v>80</v>
-      </c>
-      <c r="F106" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="F106">
+        <f>[1]France!$F$17</f>
+        <v>924.8599999999999</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,14 +4749,14 @@
         <v>24</v>
       </c>
       <c r="D107">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E107" t="s">
         <v>33</v>
       </c>
       <c r="F107">
-        <f>[1]France!$F$17</f>
-        <v>924.8599999999999</v>
+        <f>[1]France!$G$17</f>
+        <v>775.52</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4754,17 +4764,17 @@
         <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D108">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E108" t="s">
         <v>33</v>
       </c>
       <c r="F108">
-        <f>[1]France!$G$17</f>
-        <v>775.52</v>
+        <f>[1]Germany!$C$17</f>
+        <v>1598.2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4775,13 +4785,13 @@
         <v>25</v>
       </c>
       <c r="D109">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E109" t="s">
         <v>33</v>
       </c>
       <c r="F109">
-        <f>[1]Germany!$C$17</f>
+        <f>[1]Germany!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
@@ -4793,14 +4803,14 @@
         <v>25</v>
       </c>
       <c r="D110">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E110" t="s">
         <v>33</v>
       </c>
       <c r="F110">
-        <f>[1]Germany!$D$17</f>
-        <v>1598.2</v>
+        <f>[1]Germany!$E$17</f>
+        <v>1074.2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4811,14 +4821,14 @@
         <v>25</v>
       </c>
       <c r="D111">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
       </c>
       <c r="F111">
-        <f>[1]Germany!$E$17</f>
-        <v>1074.2</v>
+        <f>[1]Germany!$F$17</f>
+        <v>1018.9616666666666</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4829,14 +4839,14 @@
         <v>25</v>
       </c>
       <c r="D112">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
       </c>
       <c r="F112">
-        <f>[1]Germany!$F$17</f>
-        <v>1018.9616666666666</v>
+        <f>[1]Germany!$G$17</f>
+        <v>963.72333333333347</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,17 +4854,17 @@
         <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D113">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
       </c>
       <c r="F113">
-        <f>[1]Germany!$G$17</f>
-        <v>963.72333333333347</v>
+        <f>[1]Italy!$C$17</f>
+        <v>1598.2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,13 +4875,13 @@
         <v>87</v>
       </c>
       <c r="D114">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
       </c>
       <c r="F114">
-        <f>[1]Italy!$C$17</f>
+        <f>[1]Italy!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
@@ -4883,14 +4893,14 @@
         <v>87</v>
       </c>
       <c r="D115">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
       </c>
       <c r="F115">
-        <f>[1]Italy!$D$17</f>
-        <v>1598.2</v>
+        <f>[1]Italy!$E$17</f>
+        <v>1074.2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4901,14 +4911,14 @@
         <v>87</v>
       </c>
       <c r="D116">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
       </c>
       <c r="F116">
-        <f>[1]Italy!$E$17</f>
-        <v>1074.2</v>
+        <f>[1]Italy!$F$17</f>
+        <v>953.68</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4919,14 +4929,14 @@
         <v>87</v>
       </c>
       <c r="D117">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
       </c>
       <c r="F117">
-        <f>[1]Italy!$F$17</f>
-        <v>953.68</v>
+        <f>[1]Italy!$G$17</f>
+        <v>833.16</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4934,17 +4944,17 @@
         <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D118">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
       </c>
       <c r="F118">
-        <f>[1]Italy!$G$17</f>
-        <v>833.16</v>
+        <f>'[1]Great Britain'!$C$17</f>
+        <v>1598.2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4955,13 +4965,13 @@
         <v>88</v>
       </c>
       <c r="D119">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
       </c>
       <c r="F119">
-        <f>'[1]Great Britain'!$C$17</f>
+        <f>'[1]Great Britain'!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
@@ -4973,14 +4983,14 @@
         <v>88</v>
       </c>
       <c r="D120">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
       </c>
       <c r="F120">
-        <f>'[1]Great Britain'!$D$17</f>
-        <v>1598.2</v>
+        <f>'[1]Great Britain'!$E$17</f>
+        <v>1074.2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4991,14 +5001,14 @@
         <v>88</v>
       </c>
       <c r="D121">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
       </c>
       <c r="F121">
-        <f>'[1]Great Britain'!$E$17</f>
-        <v>1074.2</v>
+        <f>'[1]Great Britain'!$F$17</f>
+        <v>940.04409090909098</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,14 +5019,14 @@
         <v>88</v>
       </c>
       <c r="D122">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E122" t="s">
         <v>33</v>
       </c>
       <c r="F122">
-        <f>'[1]Great Britain'!$F$17</f>
-        <v>940.04409090909098</v>
+        <f>'[1]Great Britain'!$G$17</f>
+        <v>805.88818181818181</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5024,17 +5034,17 @@
         <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D123">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
       </c>
       <c r="F123">
-        <f>'[1]Great Britain'!$G$17</f>
-        <v>805.88818181818181</v>
+        <f>[1]Spain!$C$17</f>
+        <v>1598.2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,13 +5055,13 @@
         <v>89</v>
       </c>
       <c r="D124">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
       </c>
       <c r="F124">
-        <f>[1]Spain!$C$17</f>
+        <f>[1]Spain!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
@@ -5063,14 +5073,14 @@
         <v>89</v>
       </c>
       <c r="D125">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
       </c>
       <c r="F125">
-        <f>[1]Spain!$D$17</f>
-        <v>1598.2</v>
+        <f>[1]Spain!$E$17</f>
+        <v>1074.2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5081,14 +5091,14 @@
         <v>89</v>
       </c>
       <c r="D126">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
       </c>
       <c r="F126">
-        <f>[1]Spain!$E$17</f>
-        <v>1074.2</v>
+        <f>[1]Spain!$F$17</f>
+        <v>918.2632142857143</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,14 +5109,14 @@
         <v>89</v>
       </c>
       <c r="D127">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
       </c>
       <c r="F127">
-        <f>[1]Spain!$F$17</f>
-        <v>918.2632142857143</v>
+        <f>[1]Spain!$G$17</f>
+        <v>762.32642857142866</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5114,17 +5124,17 @@
         <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D128">
-        <v>2050</v>
+        <v>2015</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
       </c>
       <c r="F128">
-        <f>[1]Spain!$G$17</f>
-        <v>762.32642857142866</v>
+        <f>[1]Belgium!$C$17</f>
+        <v>1598.2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5135,13 +5145,13 @@
         <v>90</v>
       </c>
       <c r="D129">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E129" t="s">
         <v>33</v>
       </c>
       <c r="F129">
-        <f>[1]Belgium!$C$17</f>
+        <f>[1]Belgium!$D$17</f>
         <v>1598.2</v>
       </c>
     </row>
@@ -5153,14 +5163,14 @@
         <v>90</v>
       </c>
       <c r="D130">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E130" t="s">
         <v>33</v>
       </c>
       <c r="F130">
-        <f>[1]Belgium!$D$17</f>
-        <v>1598.2</v>
+        <f>[1]Belgium!$E$17</f>
+        <v>1074.2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5171,14 +5181,14 @@
         <v>90</v>
       </c>
       <c r="D131">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="E131" t="s">
         <v>33</v>
       </c>
       <c r="F131">
-        <f>[1]Belgium!$E$17</f>
-        <v>1074.2</v>
+        <f>[1]Belgium!$F$17</f>
+        <v>910.44999999999993</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5189,37 +5199,30 @@
         <v>90</v>
       </c>
       <c r="D132">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E132" t="s">
         <v>33</v>
       </c>
       <c r="F132">
-        <f>[1]Belgium!$F$17</f>
-        <v>910.44999999999993</v>
+        <f>[1]Belgium!$G$17</f>
+        <v>746.69999999999993</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
-      <c r="C133" t="s">
-        <v>90</v>
-      </c>
-      <c r="D133">
-        <v>2050</v>
-      </c>
       <c r="E133" t="s">
-        <v>33</v>
-      </c>
-      <c r="F133">
-        <f>[1]Belgium!$G$17</f>
-        <v>746.69999999999993</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E134" t="s">
         <v>80</v>
@@ -5228,64 +5231,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E135" t="s">
         <v>80</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E136" t="s">
         <v>80</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E137" t="s">
         <v>80</v>
       </c>
       <c r="F137" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E138" t="s">
         <v>80</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
         <v>80</v>
       </c>
       <c r="F139" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
         <v>80</v>
@@ -5294,9 +5297,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E141" t="s">
         <v>80</v>
@@ -5305,9 +5308,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E142" t="s">
         <v>80</v>
@@ -5316,9 +5319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E143" t="s">
         <v>80</v>
@@ -5327,9 +5330,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E144" t="s">
         <v>80</v>
@@ -5338,9 +5341,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E145" t="s">
         <v>80</v>
@@ -5349,9 +5352,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -5360,9 +5363,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E147" t="s">
         <v>80</v>
@@ -5371,9 +5374,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E148" t="s">
         <v>80</v>
@@ -5382,31 +5385,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E149" t="s">
-        <v>80</v>
-      </c>
-      <c r="F149" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s">
         <v>30</v>
       </c>
       <c r="F150">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E151" t="s">
         <v>30</v>
@@ -5415,9 +5418,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E152" t="s">
         <v>30</v>
@@ -5426,9 +5429,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E153" t="s">
         <v>30</v>
@@ -5437,9 +5440,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
@@ -5448,9 +5451,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E155" t="s">
         <v>30</v>
@@ -5459,9 +5462,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E156" t="s">
         <v>30</v>
@@ -5470,9 +5473,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
@@ -5481,9 +5484,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E158" t="s">
         <v>30</v>
@@ -5492,9 +5495,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E159" t="s">
         <v>30</v>
@@ -5503,9 +5506,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E160" t="s">
         <v>30</v>
@@ -5514,9 +5517,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E161" t="s">
         <v>30</v>
@@ -5525,9 +5528,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E162" t="s">
         <v>30</v>
@@ -5536,9 +5539,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E163" t="s">
         <v>30</v>
@@ -5547,9 +5550,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E164" t="s">
         <v>30</v>
@@ -5558,20 +5561,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E165" t="s">
         <v>30</v>
       </c>
       <c r="F165">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E166" t="s">
         <v>30</v>
@@ -5580,9 +5583,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E167" t="s">
         <v>30</v>
@@ -5591,20 +5594,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E168" t="s">
         <v>30</v>
       </c>
       <c r="F168">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E169" t="s">
         <v>30</v>
@@ -5613,31 +5616,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E170" t="s">
         <v>30</v>
       </c>
       <c r="F170">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E171" t="s">
         <v>30</v>
       </c>
       <c r="F171">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E172" t="s">
         <v>30</v>
@@ -5646,9 +5649,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E173" t="s">
         <v>30</v>
@@ -5657,9 +5660,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E174" t="s">
         <v>30</v>
@@ -5668,9 +5671,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E175" t="s">
         <v>30</v>
@@ -5679,9 +5682,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E176" t="s">
         <v>30</v>
@@ -5690,20 +5693,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E177" t="s">
         <v>30</v>
       </c>
       <c r="F177">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E178" t="s">
         <v>30</v>
@@ -5712,25 +5715,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
         <v>30</v>
       </c>
       <c r="F179">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>32</v>
-      </c>
-      <c r="E180" t="s">
-        <v>30</v>
-      </c>
-      <c r="F180">
         <v>30</v>
       </c>
     </row>
@@ -5748,7 +5740,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5859,9 +5851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5872,6 +5864,7 @@
     <col min="9" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -6674,6 +6667,10 @@
       </c>
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
+      <c r="X27">
+        <f>-2.75*K27</f>
+        <v>-0.36913953488372092</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -7019,8 +7016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EC587-A8D1-49FA-8746-6A193FF8706F}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7636,8 +7633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8097,7 +8094,7 @@
         <v>2015</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F29" s="12">
         <f>[1]France!$C37*1000000</f>
@@ -8196,7 +8193,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -8305,7 +8302,7 @@
         <v>2020</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F43" s="12">
         <f>[1]France!$D37*1000000</f>
@@ -8368,7 +8365,7 @@
         <v>2030</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F46" s="12">
         <f>[1]France!$E37*1000000</f>
@@ -8431,7 +8428,7 @@
         <v>2040</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F49" s="12">
         <f>[1]France!$F37*1000000</f>
@@ -8494,7 +8491,7 @@
         <v>2050</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F52" s="12">
         <f>[1]France!$G37*1000000</f>
@@ -8557,7 +8554,7 @@
         <v>2015</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F55" s="12">
         <f>[1]Germany!$C37*1000000</f>
@@ -8620,7 +8617,7 @@
         <v>2020</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F58" s="12">
         <f>1000000*[1]Germany!$D37</f>
@@ -8683,7 +8680,7 @@
         <v>2030</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F61" s="12">
         <f>1000000*[1]Germany!$E37</f>
@@ -8746,7 +8743,7 @@
         <v>2040</v>
       </c>
       <c r="E64" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F64" s="12">
         <f>1000000*[1]Germany!$F37</f>
@@ -8809,7 +8806,7 @@
         <v>2050</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F67" s="12">
         <f>1000000*[1]Germany!$G37</f>
@@ -8872,7 +8869,7 @@
         <v>2015</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F70" s="12">
         <f>1000000*[1]Italy!$C37</f>
@@ -8935,7 +8932,7 @@
         <v>2020</v>
       </c>
       <c r="E73" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F73" s="12">
         <f>1000000*[1]Italy!$D37</f>
@@ -8998,7 +8995,7 @@
         <v>2030</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F76" s="12">
         <f>1000000*[1]Italy!$E37</f>
@@ -9061,7 +9058,7 @@
         <v>2040</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F79" s="12">
         <f>1000000*[1]Italy!$F37</f>
@@ -9124,7 +9121,7 @@
         <v>2050</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F82" s="12">
         <f>1000000*[1]Italy!$G37</f>
@@ -9187,7 +9184,7 @@
         <v>2015</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F85">
         <f>1000000*'[1]Great Britain'!$C37</f>
@@ -9250,7 +9247,7 @@
         <v>2020</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F88">
         <f>1000000*'[1]Great Britain'!$D37</f>
@@ -9313,7 +9310,7 @@
         <v>2030</v>
       </c>
       <c r="E91" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F91">
         <f>1000000*'[1]Great Britain'!$E37</f>
@@ -9376,7 +9373,7 @@
         <v>2040</v>
       </c>
       <c r="E94" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F94">
         <f>1000000*'[1]Great Britain'!$F37</f>
@@ -9439,7 +9436,7 @@
         <v>2050</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F97">
         <f>1000000*'[1]Great Britain'!$G37</f>
@@ -9502,7 +9499,7 @@
         <v>2015</v>
       </c>
       <c r="E100" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F100">
         <f>1000000*[1]Spain!$C37</f>
@@ -9565,7 +9562,7 @@
         <v>2020</v>
       </c>
       <c r="E103" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F103">
         <f>1000000*[1]Spain!$D37</f>
@@ -9628,7 +9625,7 @@
         <v>2030</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F106">
         <f>1000000*[1]Spain!$E37</f>
@@ -9691,7 +9688,7 @@
         <v>2040</v>
       </c>
       <c r="E109" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F109">
         <f>1000000*[1]Spain!$F37</f>
@@ -9754,7 +9751,7 @@
         <v>2050</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F112">
         <f>1000000*[1]Spain!$G37</f>
@@ -9817,7 +9814,7 @@
         <v>2015</v>
       </c>
       <c r="E115" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F115">
         <f>1000000*[1]Belgium!$C37</f>
@@ -9880,7 +9877,7 @@
         <v>2020</v>
       </c>
       <c r="E118" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F118">
         <f>1000000*[1]Belgium!$D37</f>
@@ -9943,7 +9940,7 @@
         <v>2030</v>
       </c>
       <c r="E121" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F121">
         <f>1000000*[1]Belgium!$E37</f>
@@ -10006,7 +10003,7 @@
         <v>2040</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F124">
         <f>1000000*[1]Belgium!$F37</f>
@@ -10069,7 +10066,7 @@
         <v>2050</v>
       </c>
       <c r="E127" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F127">
         <f>1000000*[1]Belgium!$G37</f>
